--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>V2</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Rel Error</t>
+  </si>
+  <si>
+    <t>8 TeV</t>
   </si>
 </sst>
 </file>
@@ -106,8 +109,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -126,14 +145,14 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -141,6 +160,14 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -148,6 +175,14 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -570,7 +605,7 @@
       <c r="B6" s="1">
         <v>8.2700000000000004E-4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.2711899999999999E-5</v>
       </c>
       <c r="F6" s="1">
@@ -593,7 +628,7 @@
       <c r="B7" s="1">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="F7" s="1">
         <f>B7^2/C2 + C6^2*0.25*B3^2/(C2)^3</f>
         <v>3.3106023250577236E-5</v>
@@ -611,9 +646,138 @@
         <v>5.7537833857886269E-3</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0265E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.0289999999999996E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <f>B16/SQRT(C16)</f>
+        <v>0.14474985451386693</v>
+      </c>
+      <c r="H16">
+        <f>(F16-(1-D16)*F17)/(D16)</f>
+        <v>0.14476620966294818</v>
+      </c>
+      <c r="K16">
+        <f>J20/H16</f>
+        <v>1.7326847084940263E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.02398E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f>B17/SQRT(C16)</f>
+        <v>0.14439450172928345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.69605E-4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F20" s="1">
+        <f>B20^2/C16 + C20^2*0.25*B16^2/(C16)^3</f>
+        <v>5.720068559988449E-6</v>
+      </c>
+      <c r="H20">
+        <f>F20/(D16)^2 + F21*((1-D16)/D16)^2</f>
+        <v>6.2917794780767462E-6</v>
+      </c>
+      <c r="J20">
+        <f>SQRT(H20)</f>
+        <v>2.5083419778963046E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.8015599999999999E-4</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="F21" s="1">
+        <f>B21^2/C16 + C20^2*0.25*B17^2/(C16)^3</f>
+        <v>1.5607029487138288E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="F23">
+        <f>SQRT(F20)</f>
+        <v>2.391666481762967E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="F24">
+        <f>SQRT(F21)</f>
+        <v>3.9505733111965266E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="27">
   <si>
     <t>V2</t>
   </si>
@@ -62,12 +62,54 @@
   <si>
     <t>8 TeV</t>
   </si>
+  <si>
+    <t>NO PT CUT</t>
+  </si>
+  <si>
+    <t>PT CUT</t>
+  </si>
+  <si>
+    <t>1-1.4</t>
+  </si>
+  <si>
+    <t>1.4-1.8</t>
+  </si>
+  <si>
+    <t>1.8-2.2</t>
+  </si>
+  <si>
+    <t>2.2-2.8</t>
+  </si>
+  <si>
+    <t>2.8-3.6</t>
+  </si>
+  <si>
+    <t>3.6-4.6</t>
+  </si>
+  <si>
+    <t>Pt Bins</t>
+  </si>
+  <si>
+    <t>4.6-6</t>
+  </si>
+  <si>
+    <t>v2 signal</t>
+  </si>
+  <si>
+    <t>Relative Error</t>
+  </si>
+  <si>
+    <t>PT CUT (Almost all of PD1-4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,13 +133,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,18 +196,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -168,6 +294,31 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -183,6 +334,31 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,15 +688,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="L88" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -605,7 +783,7 @@
       <c r="B6" s="1">
         <v>8.2700000000000004E-4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>1.2711899999999999E-5</v>
       </c>
       <c r="F6" s="1">
@@ -628,7 +806,7 @@
       <c r="B7" s="1">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="10"/>
       <c r="F7" s="1">
         <f>B7^2/C2 + C6^2*0.25*B3^2/(C2)^3</f>
         <v>3.3106023250577236E-5</v>
@@ -651,6 +829,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>0</v>
@@ -700,7 +893,7 @@
         <v>1.7326847084940263E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -712,7 +905,7 @@
         <v>0.14439450172928345</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -726,14 +919,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1.69605E-4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>5.9501299999999996E-7</v>
       </c>
       <c r="F20" s="1">
@@ -749,35 +942,2275 @@
         <v>2.5083419778963046E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>2.8015599999999999E-4</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="10"/>
       <c r="F21" s="1">
         <f>B21^2/C16 + C20^2*0.25*B17^2/(C16)^3</f>
         <v>1.5607029487138288E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:28">
       <c r="F23">
         <f>SQRT(F20)</f>
         <v>2.391666481762967E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:28">
       <c r="F24">
         <f>SQRT(F21)</f>
         <v>3.9505733111965266E-3</v>
       </c>
     </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="R26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.9086800000000003E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D29">
+        <v>0.95326699999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <f>B29/SQRT(C29)</f>
+        <v>5.5114294993109846E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(F29-(1-D29)*F30)/(D29)</f>
+        <v>5.6368121446440135E-2</v>
+      </c>
+      <c r="K29">
+        <f>J33/H29</f>
+        <v>0.30290081543083358</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="6">
+        <v>5.63681214464401E-2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.30290081543083358</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3.5723600000000001E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U29">
+        <v>0.95326699999999998</v>
+      </c>
+      <c r="W29" s="1">
+        <f>S29/SQRT(T29)</f>
+        <v>5.0372018907044291E-2</v>
+      </c>
+      <c r="Y29" s="4">
+        <f>(W29-(1-U29)*W30)/(U29)</f>
+        <v>5.1750072214157193E-2</v>
+      </c>
+      <c r="AB29">
+        <f>AA33/Y29</f>
+        <v>0.29685578521723788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.09486E-3</v>
+      </c>
+      <c r="F30" s="1">
+        <f>B30/SQRT(C29)</f>
+        <v>2.9538548054398438E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="7">
+        <v>6.4875933775467298E-2</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.131491250810882</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.57883E-3</v>
+      </c>
+      <c r="W30" s="1">
+        <f>S30/SQRT(T29)</f>
+        <v>2.226227329020836E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.1099989609524949</v>
+      </c>
+      <c r="P31" s="5">
+        <v>6.5087491546706247E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.12630714105509813</v>
+      </c>
+      <c r="P32" s="5">
+        <v>4.0820441896712134E-2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.1517999999999999E-3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F33" s="1">
+        <f>B33^2/C29 + C33^2*0.25*B29^2/(C29)^3</f>
+        <v>2.6376820598442998E-4</v>
+      </c>
+      <c r="H33">
+        <f>F33/(D29)^2 + F34*((1-D29)/D29)^2</f>
+        <v>2.915197669098219E-4</v>
+      </c>
+      <c r="J33">
+        <f>SQRT(H33)</f>
+        <v>1.7073949950430975E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.15316548557983833</v>
+      </c>
+      <c r="P33" s="5">
+        <v>3.1950323854232042E-2</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1.03633E-3</v>
+      </c>
+      <c r="T33" s="13">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="W33" s="1">
+        <f>S33^2/T29 + T33^2*0.25*S29^2/(T29)^3</f>
+        <v>2.1353272151489641E-4</v>
+      </c>
+      <c r="Y33">
+        <f>W33/(U29)^2 + W34*((1-U29)/U29)^2</f>
+        <v>2.3600051698579458E-4</v>
+      </c>
+      <c r="AA33">
+        <f>SQRT(Y33)</f>
+        <v>1.5362308322182399E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.62104E-3</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="F34" s="1">
+        <f>B34^2/C29 + C33^2*0.25*B30^2/(C29)^3</f>
+        <v>5.2246324682272364E-4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0.1822977368690569</v>
+      </c>
+      <c r="P34" s="5">
+        <v>3.3873671896799913E-2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1.4596800000000001E-3</v>
+      </c>
+      <c r="T34" s="14"/>
+      <c r="W34" s="1">
+        <f>S34^2/T29 + T33^2*0.25*S30^2/(T29)^3</f>
+        <v>4.2362696478521518E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="N35" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0.21770241685354796</v>
+      </c>
+      <c r="P35" s="5">
+        <v>4.7980277714905512E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="F36">
+        <f>SQRT(F33)</f>
+        <v>1.6240942275140009E-2</v>
+      </c>
+      <c r="W36">
+        <f>SQRT(W33)</f>
+        <v>1.4612758860492306E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="F37">
+        <f>SQRT(F34)</f>
+        <v>2.285745495068783E-2</v>
+      </c>
+      <c r="W37">
+        <f>SQRT(W34)</f>
+        <v>2.0582200193011806E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4.66936E-3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.953677</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <f>B41/SQRT(C41)</f>
+        <v>6.5840254118788785E-2</v>
+      </c>
+      <c r="H41">
+        <f>(F41-(1-D41)*F42)/(D41)</f>
+        <v>6.4878642483089902E-2</v>
+      </c>
+      <c r="K41">
+        <f>J45/H41</f>
+        <v>0.13149125081340679</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="3">
+        <v>5.0995099999999998E-3</v>
+      </c>
+      <c r="T41" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.953677</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1">
+        <f>S41/SQRT(T41)</f>
+        <v>7.1905578983266355E-2</v>
+      </c>
+      <c r="Y41">
+        <f>(W41-(1-U41)*W42)/(U41)</f>
+        <v>7.1787446794090104E-2</v>
+      </c>
+      <c r="AB41">
+        <f>AA45/Y41</f>
+        <v>0.10656287981727336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.0733699999999998E-3</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1">
+        <f>B42/SQRT(C41)</f>
+        <v>8.5637480116638742E-2</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="3">
+        <v>5.2719899999999998E-3</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1">
+        <f>S42/SQRT(T41)</f>
+        <v>7.4337631133969823E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5.7454399999999997E-4</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1">
+        <f>B45^2/C41 + C45^2*0.25*B41^2/(C41)^3</f>
+        <v>6.5631898531995209E-5</v>
+      </c>
+      <c r="H45">
+        <f>F45/(D41)^2 + F46*((1-D41)/D41)^2</f>
+        <v>7.2777514849471254E-5</v>
+      </c>
+      <c r="J45">
+        <f>SQRT(H45)</f>
+        <v>8.5309738511773238E-3</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="3">
+        <v>5.1518099999999997E-4</v>
+      </c>
+      <c r="T45" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1">
+        <f>S45^2/T41 + T45^2*0.25*S41^2/(T41)^3</f>
+        <v>5.2770119432398038E-5</v>
+      </c>
+      <c r="Y45">
+        <f>W45/(U41)^2 + W46*((1-U41)/U41)^2</f>
+        <v>5.8520619111258179E-5</v>
+      </c>
+      <c r="AA45">
+        <f>SQRT(Y45)</f>
+        <v>7.649877065107529E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.1448999999999999E-3</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1">
+        <f>B46^2/C41 + C45^2*0.25*B42^2/(C41)^3</f>
+        <v>2.6061741518249173E-4</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S46" s="3">
+        <v>1.03199E-3</v>
+      </c>
+      <c r="T46" s="12"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1">
+        <f>S46^2/T41 + T45^2*0.25*S42^2/(T41)^3</f>
+        <v>2.1174798686191657E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48">
+        <f>SQRT(F45)</f>
+        <v>8.1013516484593606E-3</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48">
+        <f>SQRT(W45)</f>
+        <v>7.2643044699680671E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49">
+        <f>SQRT(F46)</f>
+        <v>1.6143649376225058E-2</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49">
+        <f>SQRT(W46)</f>
+        <v>1.4551563038447676E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" s="2"/>
+      <c r="W52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7.8558699999999992E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.95487200000000005</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1">
+        <f>B53/SQRT(C53)</f>
+        <v>0.1107715997747377</v>
+      </c>
+      <c r="H53">
+        <f>(F53-(1-D53)*F54)/(D53)</f>
+        <v>0.11000355364205899</v>
+      </c>
+      <c r="K53">
+        <f>J57/H53</f>
+        <v>6.5087491551711077E-2</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="3">
+        <v>7.6369599999999999E-3</v>
+      </c>
+      <c r="T53" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0.95487200000000005</v>
+      </c>
+      <c r="V53" s="2"/>
+      <c r="W53" s="1">
+        <f>S53/SQRT(T53)</f>
+        <v>0.10768486197145331</v>
+      </c>
+      <c r="Y53">
+        <f>(W53-(1-U53)*W54)/(U53)</f>
+        <v>0.10711039174623081</v>
+      </c>
+      <c r="AB53">
+        <f>AA57/Y53</f>
+        <v>5.9928084209284999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>9.0083999999999997E-3</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1">
+        <f>B54/SQRT(C53)</f>
+        <v>0.12702283507883241</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S54" s="3">
+        <v>8.4990099999999996E-3</v>
+      </c>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="1">
+        <f>S54/SQRT(T53)</f>
+        <v>0.11984018755421023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>4.8321799999999999E-4</v>
+      </c>
+      <c r="C57" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1">
+        <f>B57^2/C53 + C57^2*0.25*B53^2/(C53)^3</f>
+        <v>4.6425318107492967E-5</v>
+      </c>
+      <c r="H57">
+        <f>F57/(D53)^2 + F58*((1-D53)/D53)^2</f>
+        <v>5.126352889548571E-5</v>
+      </c>
+      <c r="J57">
+        <f>SQRT(H57)</f>
+        <v>7.1598553683357114E-3</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S57" s="3">
+        <v>4.3320199999999999E-4</v>
+      </c>
+      <c r="T57" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="1">
+        <f>S57^2/T53 + T57^2*0.25*S53^2/(T53)^3</f>
+        <v>3.7312089670696186E-5</v>
+      </c>
+      <c r="Y57">
+        <f>W57/(U53)^2 + W58*((1-U53)/U53)^2</f>
+        <v>4.120254136430352E-5</v>
+      </c>
+      <c r="AA57">
+        <f>SQRT(Y57)</f>
+        <v>6.4189205762576248E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8.8309E-4</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1">
+        <f>B58^2/C53 + C57^2*0.25*B54^2/(C53)^3</f>
+        <v>1.5505235666326631E-4</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S58" s="3">
+        <v>7.94489E-4</v>
+      </c>
+      <c r="T58" s="12"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="1">
+        <f>S58^2/T53 + T57^2*0.25*S54^2/(T53)^3</f>
+        <v>1.2550013682074651E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60">
+        <f>SQRT(F57)</f>
+        <v>6.8136127060094169E-3</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60">
+        <f>SQRT(W57)</f>
+        <v>6.1083622740220793E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61">
+        <f>SQRT(F58)</f>
+        <v>1.2452002114650732E-2</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61">
+        <f>SQRT(W58)</f>
+        <v>1.1202684357811145E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V64" s="2"/>
+      <c r="W64" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
+        <v>9.0376399999999996E-3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.95613999999999999</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1">
+        <f>B65/SQRT(C65)</f>
+        <v>0.12743513334464043</v>
+      </c>
+      <c r="H65">
+        <f>(F65-(1-D65)*F66)/(D65)</f>
+        <v>0.12631241464571724</v>
+      </c>
+      <c r="K65">
+        <f>J69/H65</f>
+        <v>4.0820441904701729E-2</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="3">
+        <v>9.0660500000000008E-3</v>
+      </c>
+      <c r="T65" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.95613999999999999</v>
+      </c>
+      <c r="V65" s="2"/>
+      <c r="W65" s="1">
+        <f>S65/SQRT(T65)</f>
+        <v>0.12783572820550251</v>
+      </c>
+      <c r="Y65">
+        <f>(W65-(1-U65)*W66)/(U65)</f>
+        <v>0.12682808468040832</v>
+      </c>
+      <c r="AB65">
+        <f>AA69/Y65</f>
+        <v>3.6521420558687623E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.0773400000000001E-2</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1">
+        <f>B66/SQRT(C65)</f>
+        <v>0.15191019619891361</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1.06239E-2</v>
+      </c>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="1">
+        <f>S66/SQRT(T65)</f>
+        <v>0.14980217325984724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3.4812899999999997E-4</v>
+      </c>
+      <c r="C69" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1">
+        <f>B69^2/C65 + C69^2*0.25*B65^2/(C65)^3</f>
+        <v>2.4096263786159637E-5</v>
+      </c>
+      <c r="H69">
+        <f>F69/(D65)^2 + F70*((1-D65)/D65)^2</f>
+        <v>2.6585661973587867E-5</v>
+      </c>
+      <c r="J69">
+        <f>SQRT(H69)</f>
+        <v>5.1561285838880961E-3</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S69" s="3">
+        <v>3.1272100000000002E-4</v>
+      </c>
+      <c r="T69" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="1">
+        <f>S69^2/T65 + T69^2*0.25*S65^2/(T65)^3</f>
+        <v>1.94439017607513E-5</v>
+      </c>
+      <c r="Y69">
+        <f>W69/(U65)^2 + W70*((1-U65)/U65)^2</f>
+        <v>2.1454885017065582E-5</v>
+      </c>
+      <c r="AA69">
+        <f>SQRT(Y69)</f>
+        <v>4.6319418192660392E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3">
+        <v>7.3823499999999995E-4</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1">
+        <f>B70^2/C65 + C69^2*0.25*B66^2/(C65)^3</f>
+        <v>1.0835722293097601E-4</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S70" s="3">
+        <v>6.6714400000000005E-4</v>
+      </c>
+      <c r="T70" s="12"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="1">
+        <f>S70^2/T65 + T69^2*0.25*S66^2/(T65)^3</f>
+        <v>8.849276484886948E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72">
+        <f>SQRT(F69)</f>
+        <v>4.9087945349301021E-3</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72">
+        <f>SQRT(W69)</f>
+        <v>4.409523983464802E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73">
+        <f>SQRT(F70)</f>
+        <v>1.0409477553219278E-2</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73">
+        <f>SQRT(W70)</f>
+        <v>9.4070593093096566E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V76" s="2"/>
+      <c r="W76" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.0930499999999999E-2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.95709599999999995</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="1">
+        <f>B77/SQRT(C77)</f>
+        <v>0.15412538284591909</v>
+      </c>
+      <c r="H77">
+        <f>(F77-(1-D77)*F78)/(D77)</f>
+        <v>0.15317188056321915</v>
+      </c>
+      <c r="K77">
+        <f>J81/H77</f>
+        <v>3.1950323864362098E-2</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S77" s="3">
+        <v>1.12055E-2</v>
+      </c>
+      <c r="T77" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.95709599999999995</v>
+      </c>
+      <c r="V77" s="2"/>
+      <c r="W77" s="1">
+        <f>S77/SQRT(T77)</f>
+        <v>0.15800301701477029</v>
+      </c>
+      <c r="Y77">
+        <f>(W77-(1-U77)*W78)/(U77)</f>
+        <v>0.15777116773582145</v>
+      </c>
+      <c r="AB77">
+        <f>AA81/Y77</f>
+        <v>2.7911136751951948E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.2439E-2</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="1">
+        <f>B78/SQRT(C77)</f>
+        <v>0.17539596882305364</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S78" s="3">
+        <v>1.1572300000000001E-2</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="1">
+        <f>S78/SQRT(T77)</f>
+        <v>0.16317507597162342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3">
+        <v>3.3058399999999998E-4</v>
+      </c>
+      <c r="C81" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1">
+        <f>B81^2/C77 + C81^2*0.25*B77^2/(C77)^3</f>
+        <v>2.1728692866947019E-5</v>
+      </c>
+      <c r="H81">
+        <f>F81/(D77)^2 + F82*((1-D77)/D77)^2</f>
+        <v>2.3950170988449283E-5</v>
+      </c>
+      <c r="J81">
+        <f>SQRT(H81)</f>
+        <v>4.8938911909082415E-3</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" s="3">
+        <v>2.9747699999999998E-4</v>
+      </c>
+      <c r="T81" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="1">
+        <f>S81^2/T77 + T81^2*0.25*S77^2/(T77)^3</f>
+        <v>1.7594496043396074E-5</v>
+      </c>
+      <c r="Y81">
+        <f>W81/(U77)^2 + W82*((1-U77)/U77)^2</f>
+        <v>1.9391451979812651E-5</v>
+      </c>
+      <c r="AA81">
+        <f>SQRT(Y81)</f>
+        <v>4.4035726381896614E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3">
+        <v>7.5829900000000004E-4</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="1">
+        <f>B82^2/C77 + C81^2*0.25*B78^2/(C77)^3</f>
+        <v>1.1432722309916651E-4</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S82" s="3">
+        <v>6.7894899999999998E-4</v>
+      </c>
+      <c r="T82" s="12"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="1">
+        <f>S82^2/T77 + T81^2*0.25*S78^2/(T77)^3</f>
+        <v>9.1652211204154598E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84">
+        <f>SQRT(F81)</f>
+        <v>4.6614046023647224E-3</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84">
+        <f>SQRT(W81)</f>
+        <v>4.1945793642981745E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85">
+        <f>SQRT(F82)</f>
+        <v>1.0692390897229979E-2</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85">
+        <f>SQRT(W82)</f>
+        <v>9.5735161358904385E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="R87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" t="s">
+        <v>12</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V88" s="2"/>
+      <c r="W88" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.30496E-2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.95977100000000004</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1">
+        <f>B89/SQRT(C89)</f>
+        <v>0.18400572672669191</v>
+      </c>
+      <c r="H89">
+        <f>(F89-(1-D89)*F90)/(D89)</f>
+        <v>0.18230534818562227</v>
+      </c>
+      <c r="K89">
+        <f>J93/H89</f>
+        <v>3.3873671906360522E-2</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S89" s="3">
+        <v>1.30192E-2</v>
+      </c>
+      <c r="T89" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.95977100000000004</v>
+      </c>
+      <c r="V89" s="2"/>
+      <c r="W89" s="1">
+        <f>S89/SQRT(T89)</f>
+        <v>0.18357707189493527</v>
+      </c>
+      <c r="Y89">
+        <f>(W89-(1-U89)*W90)/(U89)</f>
+        <v>0.18178112463294421</v>
+      </c>
+      <c r="AB89">
+        <f>AA93/Y89</f>
+        <v>3.0533726440326536E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1.5926599999999999E-2</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="1">
+        <f>B90/SQRT(C89)</f>
+        <v>0.22457283037681855</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S90" s="3">
+        <v>1.60579E-2</v>
+      </c>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="1">
+        <f>S90/SQRT(T89)</f>
+        <v>0.22642422443634641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3">
+        <v>4.1863300000000002E-4</v>
+      </c>
+      <c r="C93" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="1">
+        <f>B93^2/C89 + C93^2*0.25*B89^2/(C89)^3</f>
+        <v>3.4844695679368123E-5</v>
+      </c>
+      <c r="H93">
+        <f>F93/(D89)^2 + F94*((1-D89)/D89)^2</f>
+        <v>3.8134966781088404E-5</v>
+      </c>
+      <c r="J93">
+        <f>SQRT(H93)</f>
+        <v>6.1753515512145869E-3</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S93" s="3">
+        <v>3.76263E-4</v>
+      </c>
+      <c r="T93" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="1">
+        <f>S93^2/T89 + T93^2*0.25*S89^2/(T89)^3</f>
+        <v>2.8148340612405528E-5</v>
+      </c>
+      <c r="Y93">
+        <f>W93/(U89)^2 + W94*((1-U89)/U89)^2</f>
+        <v>3.0807552167429901E-5</v>
+      </c>
+      <c r="AA93">
+        <f>SQRT(Y93)</f>
+        <v>5.5504551315572219E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="3">
+        <v>9.3902000000000005E-4</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="1">
+        <f>B94^2/C89 + C93^2*0.25*B90^2/(C89)^3</f>
+        <v>1.7531472764645493E-4</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S94" s="3">
+        <v>8.4610800000000004E-4</v>
+      </c>
+      <c r="T94" s="12"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="1">
+        <f>S94^2/T89 + T93^2*0.25*S90^2/(T89)^3</f>
+        <v>1.4233782675970592E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96">
+        <f>SQRT(F93)</f>
+        <v>5.9029395795118997E-3</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96">
+        <f>SQRT(W93)</f>
+        <v>5.3055009765719139E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97">
+        <f>SQRT(F94)</f>
+        <v>1.3240646798644503E-2</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97">
+        <f>SQRT(W94)</f>
+        <v>1.1930541763042696E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="R99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" t="s">
+        <v>12</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V100" s="2"/>
+      <c r="W100" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.5453E-2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.96200300000000005</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="1">
+        <f>B101/SQRT(C101)</f>
+        <v>0.21789483931366249</v>
+      </c>
+      <c r="H101">
+        <f>(F101-(1-D101)*F102)/(D101)</f>
+        <v>0.21771150639047904</v>
+      </c>
+      <c r="K101">
+        <f>J105/H101</f>
+        <v>4.7980277721505489E-2</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S101" s="3">
+        <v>1.5479E-2</v>
+      </c>
+      <c r="T101" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U101" s="2">
+        <v>0.96200300000000005</v>
+      </c>
+      <c r="V101" s="2"/>
+      <c r="W101" s="1">
+        <f>S101/SQRT(T101)</f>
+        <v>0.21826145199871752</v>
+      </c>
+      <c r="Y101">
+        <f>(W101-(1-U101)*W102)/(U101)</f>
+        <v>0.21750991956496166</v>
+      </c>
+      <c r="AB101">
+        <f>AA105/Y101</f>
+        <v>4.3183281622891395E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.578218E-2</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="1">
+        <f>B102/SQRT(C101)</f>
+        <v>0.2225364379162168</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S102" s="3">
+        <v>1.68284E-2</v>
+      </c>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="1">
+        <f>S102/SQRT(T101)</f>
+        <v>0.23728865035307306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" t="s">
+        <v>10</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="3">
+        <v>7.1134799999999999E-4</v>
+      </c>
+      <c r="C105" s="8">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="1">
+        <f>B105^2/C101 + C105^2*0.25*B101^2/(C101)^3</f>
+        <v>1.0060816461495736E-4</v>
+      </c>
+      <c r="H105">
+        <f>F105/(D101)^2 + F106*((1-D101)/D101)^2</f>
+        <v>1.0911596063314701E-4</v>
+      </c>
+      <c r="J105">
+        <f>SQRT(H105)</f>
+        <v>1.0445858539782501E-2</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S105" s="3">
+        <v>6.3964200000000005E-4</v>
+      </c>
+      <c r="T105" s="12">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="1">
+        <f>S105^2/T101 + T105^2*0.25*S101^2/(T101)^3</f>
+        <v>8.1347264560443369E-5</v>
+      </c>
+      <c r="Y105">
+        <f>W105/(U101)^2 + W106*((1-U101)/U101)^2</f>
+        <v>8.822454366575288E-5</v>
+      </c>
+      <c r="AA105">
+        <f>SQRT(Y105)</f>
+        <v>9.3927921123461936E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1.14018E-3</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="1">
+        <f>B106^2/C101 + C105^2*0.25*B102^2/(C101)^3</f>
+        <v>2.5847313371176774E-4</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S106" s="3">
+        <v>1.0225E-3</v>
+      </c>
+      <c r="T106" s="12"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="1">
+        <f>S106^2/T101 + T105^2*0.25*S102^2/(T101)^3</f>
+        <v>2.0787164369087032E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108">
+        <f>SQRT(F105)</f>
+        <v>1.0030362137777348E-2</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108">
+        <f>SQRT(W105)</f>
+        <v>9.0192718420304512E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109">
+        <f>SQRT(F106)</f>
+        <v>1.6077099667283514E-2</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109">
+        <f>SQRT(W106)</f>
+        <v>1.4417754460763656E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="R26:AB26"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C93:C94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="4480" windowWidth="15360" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Xi" sheetId="1" r:id="rId1"/>
+    <sheet name="Xi (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="33">
   <si>
     <t>V2</t>
   </si>
@@ -101,6 +102,24 @@
   <si>
     <t>PT CUT (Almost all of PD1-4)</t>
   </si>
+  <si>
+    <t>Kshort</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>trg</t>
+  </si>
+  <si>
+    <t>0.8-1.0</t>
+  </si>
+  <si>
+    <t>0.6-0.8</t>
+  </si>
+  <si>
+    <t>0.4-0.6</t>
+  </si>
 </sst>
 </file>
 
@@ -115,6 +134,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,7 +184,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -246,8 +266,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,7 +370,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -271,14 +382,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -319,6 +430,50 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -359,6 +514,50 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L88" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -783,7 +982,7 @@
       <c r="B6" s="1">
         <v>8.2700000000000004E-4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>1.2711899999999999E-5</v>
       </c>
       <c r="F6" s="1">
@@ -806,7 +1005,7 @@
       <c r="B7" s="1">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="13"/>
       <c r="F7" s="1">
         <f>B7^2/C2 + C6^2*0.25*B3^2/(C2)^3</f>
         <v>3.3106023250577236E-5</v>
@@ -830,19 +1029,19 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -926,7 +1125,7 @@
       <c r="B20" s="1">
         <v>1.69605E-4</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>5.9501299999999996E-7</v>
       </c>
       <c r="F20" s="1">
@@ -949,7 +1148,7 @@
       <c r="B21" s="1">
         <v>2.8015599999999999E-4</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="13"/>
       <c r="F21" s="1">
         <f>B21^2/C16 + C20^2*0.25*B17^2/(C16)^3</f>
         <v>1.5607029487138288E-5</v>
@@ -968,32 +1167,32 @@
       </c>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="R26" s="11" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="R26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
@@ -1199,7 +1398,7 @@
       <c r="B33" s="1">
         <v>1.1517999999999999E-3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>5.9501299999999996E-7</v>
       </c>
       <c r="F33" s="1">
@@ -1229,7 +1428,7 @@
       <c r="S33" s="1">
         <v>1.03633E-3</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="9">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="W33" s="1">
@@ -1252,7 +1451,7 @@
       <c r="B34" s="1">
         <v>1.62104E-3</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="13"/>
       <c r="F34" s="1">
         <f>B34^2/C29 + C33^2*0.25*B30^2/(C29)^3</f>
         <v>5.2246324682272364E-4</v>
@@ -1272,7 +1471,7 @@
       <c r="S34" s="1">
         <v>1.4596800000000001E-3</v>
       </c>
-      <c r="T34" s="14"/>
+      <c r="T34" s="10"/>
       <c r="W34" s="1">
         <f>S34^2/T29 + T33^2*0.25*S30^2/(T29)^3</f>
         <v>4.2362696478521518E-4</v>
@@ -1496,7 +1695,7 @@
       <c r="B45" s="3">
         <v>5.7454399999999997E-4</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D45" s="2"/>
@@ -1519,7 +1718,7 @@
       <c r="S45" s="3">
         <v>5.1518099999999997E-4</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U45" s="2"/>
@@ -1544,7 +1743,7 @@
       <c r="B46" s="3">
         <v>1.1448999999999999E-3</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1">
@@ -1557,7 +1756,7 @@
       <c r="S46" s="3">
         <v>1.03199E-3</v>
       </c>
-      <c r="T46" s="12"/>
+      <c r="T46" s="8"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -1804,7 +2003,7 @@
       <c r="B57" s="3">
         <v>4.8321799999999999E-4</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D57" s="2"/>
@@ -1827,7 +2026,7 @@
       <c r="S57" s="3">
         <v>4.3320199999999999E-4</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U57" s="2"/>
@@ -1852,7 +2051,7 @@
       <c r="B58" s="3">
         <v>8.8309E-4</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1">
@@ -1865,7 +2064,7 @@
       <c r="S58" s="3">
         <v>7.94489E-4</v>
       </c>
-      <c r="T58" s="12"/>
+      <c r="T58" s="8"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -2112,7 +2311,7 @@
       <c r="B69" s="3">
         <v>3.4812899999999997E-4</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D69" s="2"/>
@@ -2135,7 +2334,7 @@
       <c r="S69" s="3">
         <v>3.1272100000000002E-4</v>
       </c>
-      <c r="T69" s="12">
+      <c r="T69" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U69" s="2"/>
@@ -2160,7 +2359,7 @@
       <c r="B70" s="3">
         <v>7.3823499999999995E-4</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1">
@@ -2173,7 +2372,7 @@
       <c r="S70" s="3">
         <v>6.6714400000000005E-4</v>
       </c>
-      <c r="T70" s="12"/>
+      <c r="T70" s="8"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -2420,7 +2619,7 @@
       <c r="B81" s="3">
         <v>3.3058399999999998E-4</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D81" s="2"/>
@@ -2443,7 +2642,7 @@
       <c r="S81" s="3">
         <v>2.9747699999999998E-4</v>
       </c>
-      <c r="T81" s="12">
+      <c r="T81" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U81" s="2"/>
@@ -2468,7 +2667,7 @@
       <c r="B82" s="3">
         <v>7.5829900000000004E-4</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1">
@@ -2481,7 +2680,7 @@
       <c r="S82" s="3">
         <v>6.7894899999999998E-4</v>
       </c>
-      <c r="T82" s="12"/>
+      <c r="T82" s="8"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="1">
@@ -2748,7 +2947,7 @@
       <c r="B93" s="3">
         <v>4.1863300000000002E-4</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D93" s="2"/>
@@ -2771,7 +2970,7 @@
       <c r="S93" s="3">
         <v>3.76263E-4</v>
       </c>
-      <c r="T93" s="12">
+      <c r="T93" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U93" s="2"/>
@@ -2796,7 +2995,7 @@
       <c r="B94" s="3">
         <v>9.3902000000000005E-4</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1">
@@ -2809,7 +3008,7 @@
       <c r="S94" s="3">
         <v>8.4610800000000004E-4</v>
       </c>
-      <c r="T94" s="12"/>
+      <c r="T94" s="8"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="1">
@@ -3076,7 +3275,7 @@
       <c r="B105" s="3">
         <v>7.1134799999999999E-4</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="14">
         <v>5.9500000000000002E-7</v>
       </c>
       <c r="D105" s="2"/>
@@ -3099,7 +3298,7 @@
       <c r="S105" s="3">
         <v>6.3964200000000005E-4</v>
       </c>
-      <c r="T105" s="12">
+      <c r="T105" s="8">
         <v>5.3852999999999999E-7</v>
       </c>
       <c r="U105" s="2"/>
@@ -3124,7 +3323,7 @@
       <c r="B106" s="3">
         <v>1.14018E-3</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="1">
@@ -3137,7 +3336,7 @@
       <c r="S106" s="3">
         <v>1.0225E-3</v>
       </c>
-      <c r="T106" s="12"/>
+      <c r="T106" s="8"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="1">
@@ -3220,4 +3419,3362 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2/SQRT(C2)</f>
+        <v>9.9422058733018917E-2</v>
+      </c>
+      <c r="H2">
+        <f>(F2-(1-D2)*F3)/(D2)</f>
+        <v>0.1029701959424689</v>
+      </c>
+      <c r="K2">
+        <f>J6/H2</f>
+        <v>9.6909607202942283E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3/SQRT(C2)</f>
+        <v>8.7270473776761059E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.2711899999999999E-5</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B6^2/C2 + C6^2*0.25*B2^2/(C2)^3</f>
+        <v>5.7962952635390526E-5</v>
+      </c>
+      <c r="H6">
+        <f>F6/(D2)^2 + F7*((1-D2)/D2)^2</f>
+        <v>9.9576474235217241E-5</v>
+      </c>
+      <c r="J6">
+        <f>SQRT(H6)</f>
+        <v>9.9788012423946623E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="F7" s="1">
+        <f>B7^2/C2 + C6^2*0.25*B3^2/(C2)^3</f>
+        <v>3.3106023250577236E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9">
+        <f>SQRT(F6)</f>
+        <v>7.613340438689874E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10">
+        <f>SQRT(F7)</f>
+        <v>5.7537833857886269E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0265E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.0289999999999996E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <f>B16/SQRT(C16)</f>
+        <v>0.14474985451386693</v>
+      </c>
+      <c r="H16">
+        <f>(F16-(1-D16)*F17)/(D16)</f>
+        <v>0.14476620966294818</v>
+      </c>
+      <c r="K16">
+        <f>J20/H16</f>
+        <v>1.7326847084940263E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.02398E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f>B17/SQRT(C16)</f>
+        <v>0.14439450172928345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.69605E-4</v>
+      </c>
+      <c r="C20" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F20" s="1">
+        <f>B20^2/C16 + C20^2*0.25*B16^2/(C16)^3</f>
+        <v>5.720068559988449E-6</v>
+      </c>
+      <c r="H20">
+        <f>F20/(D16)^2 + F21*((1-D16)/D16)^2</f>
+        <v>6.2917794780767462E-6</v>
+      </c>
+      <c r="J20">
+        <f>SQRT(H20)</f>
+        <v>2.5083419778963046E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.8015599999999999E-4</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="F21" s="1">
+        <f>B21^2/C16 + C20^2*0.25*B17^2/(C16)^3</f>
+        <v>1.5607029487138288E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="F23">
+        <f>SQRT(F20)</f>
+        <v>2.391666481762967E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="F24">
+        <f>SQRT(F21)</f>
+        <v>3.9505733111965266E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="R27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.0646100000000002E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.95326699999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <f>B31/SQRT(C31)</f>
+        <v>4.3212496182556348E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <f>(F31-(1-D31)*F32)/(D31)</f>
+        <v>4.2221321976531404E-2</v>
+      </c>
+      <c r="K31">
+        <f>J35/H31</f>
+        <v>1.5618196106598609E-2</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.4984700000000001E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <f>B32/SQRT(C31)</f>
+        <v>6.3430621743825244E-2</v>
+      </c>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.39138E-5</v>
+      </c>
+      <c r="C35" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F35" s="1">
+        <f>B35^2/C31 + C35^2*0.25*B31^2/(C31)^3</f>
+        <v>3.834226101134045E-7</v>
+      </c>
+      <c r="H35">
+        <f>F35/(D31)^2 + F36*((1-D31)/D31)^2</f>
+        <v>4.3483590556472302E-7</v>
+      </c>
+      <c r="J35">
+        <f>SQRT(H35)</f>
+        <v>6.5942088650930908E-4</v>
+      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.6429199999999999E-4</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="F36" s="1">
+        <f>B36^2/C31 + C35^2*0.25*B32^2/(C31)^3</f>
+        <v>5.3666373868630244E-6</v>
+      </c>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="F38">
+        <f>SQRT(F35)</f>
+        <v>6.1921128067357145E-4</v>
+      </c>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="F39">
+        <f>SQRT(F36)</f>
+        <v>2.316600394298297E-3</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.1673700000000001E-3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D43">
+        <v>0.97860199999999997</v>
+      </c>
+      <c r="F43" s="1">
+        <f>B43/SQRT(C43)</f>
+        <v>5.8761950204528422E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <f>(F43-(1-D43)*F44)/(D43)</f>
+        <v>5.816060044872487E-2</v>
+      </c>
+      <c r="K43">
+        <f>J47/H43</f>
+        <v>8.8139005635917977E-3</v>
+      </c>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6.1177799999999997E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <f>B44/SQRT(C43)</f>
+        <v>8.6263682783688483E-2</v>
+      </c>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.5485899999999998E-5</v>
+      </c>
+      <c r="C47" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F47" s="1">
+        <f>B47^2/C43 + C47^2*0.25*B43^2/(C43)^3</f>
+        <v>2.5038072042268004E-7</v>
+      </c>
+      <c r="H47">
+        <f>F47/(D43)^2 + F48*((1-D43)/D43)^2</f>
+        <v>2.6278105762353684E-7</v>
+      </c>
+      <c r="J47">
+        <f>SQRT(H47)</f>
+        <v>5.1262174907385351E-4</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.18329E-4</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="F48" s="1">
+        <f>B48^2/C43 + C47^2*0.25*B44^2/(C43)^3</f>
+        <v>2.7839070448274536E-6</v>
+      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="F50">
+        <f>SQRT(F47)</f>
+        <v>5.0038057558490421E-4</v>
+      </c>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="F51">
+        <f>SQRT(F48)</f>
+        <v>1.6685044335654172E-3</v>
+      </c>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T54" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" t="s">
+        <v>6</v>
+      </c>
+      <c r="W54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5.7649199999999998E-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D55">
+        <v>0.97608600000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <f>B55/SQRT(C55)</f>
+        <v>8.1288184627976393E-2</v>
+      </c>
+      <c r="H55" s="4">
+        <f>(F55-(1-D55)*F56)/(D55)</f>
+        <v>8.0809811783283142E-2</v>
+      </c>
+      <c r="K55">
+        <f>J59/H55</f>
+        <v>4.1834298758228429E-3</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <v>2.2911799999999999E-3</v>
+      </c>
+      <c r="T55" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U55">
+        <v>0.95326699999999998</v>
+      </c>
+      <c r="W55" s="1">
+        <f>S55/SQRT(T55)</f>
+        <v>3.2306755836321574E-2</v>
+      </c>
+      <c r="Y55" s="4">
+        <f>(W55-(1-U55)*W56)/(U55)</f>
+        <v>2.9477015899159235E-2</v>
+      </c>
+      <c r="AB55">
+        <f>AA59/Y55</f>
+        <v>8.2145414412354442E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7.1496600000000004E-3</v>
+      </c>
+      <c r="F56" s="1">
+        <f>B56/SQRT(C55)</f>
+        <v>0.10081369422424903</v>
+      </c>
+      <c r="R56" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="1">
+        <v>6.3847599999999997E-3</v>
+      </c>
+      <c r="W56" s="1">
+        <f>S56/SQRT(T55)</f>
+        <v>9.0028231039688073E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.33414E-5</v>
+      </c>
+      <c r="C59" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F59" s="1">
+        <f>B59^2/C55 + C59^2*0.25*B55^2/(C55)^3</f>
+        <v>1.083464696677514E-7</v>
+      </c>
+      <c r="H59">
+        <f>F59/(D55)^2 + F60*((1-D55)/D55)^2</f>
+        <v>1.1428603813715495E-7</v>
+      </c>
+      <c r="J59">
+        <f>SQRT(H59)</f>
+        <v>3.380621808738075E-4</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1.63411E-4</v>
+      </c>
+      <c r="T59" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="W59" s="1">
+        <f>S59^2/T55 + T59^2*0.25*S55^2/(T55)^3</f>
+        <v>5.309225280919872E-6</v>
+      </c>
+      <c r="Y59">
+        <f>W59/(U55)^2 + W60*((1-U55)/U55)^2</f>
+        <v>5.8631861282373587E-6</v>
+      </c>
+      <c r="AA59">
+        <f>SQRT(Y59)</f>
+        <v>2.4214016866759961E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6.8839999999999998E-5</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="F60" s="1">
+        <f>B60^2/C55 + C59^2*0.25*B56^2/(C55)^3</f>
+        <v>9.4225053675620285E-7</v>
+      </c>
+      <c r="R60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S60" s="1">
+        <v>2.07839E-4</v>
+      </c>
+      <c r="T60" s="13"/>
+      <c r="W60" s="1">
+        <f>S60^2/T55 + T59^2*0.25*S56^2/(T55)^3</f>
+        <v>8.5886281863584557E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="F62">
+        <f>SQRT(F59)</f>
+        <v>3.2916024922179077E-4</v>
+      </c>
+      <c r="W62">
+        <f>SQRT(W59)</f>
+        <v>2.3041756185065133E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="F63">
+        <f>SQRT(F60)</f>
+        <v>9.7069590333749881E-4</v>
+      </c>
+      <c r="W63">
+        <f>SQRT(W60)</f>
+        <v>2.9306361402191257E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" t="s">
+        <v>6</v>
+      </c>
+      <c r="W66" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>7.4825500000000001E-3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D67">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="F67" s="1">
+        <f>B67/SQRT(C67)</f>
+        <v>0.10550760563686309</v>
+      </c>
+      <c r="H67" s="4">
+        <f>(F67-(1-D67)*F68)/(D67)</f>
+        <v>0.10507687966449279</v>
+      </c>
+      <c r="K67">
+        <f>J71/H67</f>
+        <v>3.568165013365356E-3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="6">
+        <v>5.63681214464401E-2</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.30290081543083358</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1">
+        <v>3.9435299999999998E-3</v>
+      </c>
+      <c r="T67" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U67">
+        <v>0.95326699999999998</v>
+      </c>
+      <c r="W67" s="1">
+        <f>S67/SQRT(T67)</f>
+        <v>5.5605696995962434E-2</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>(W67-(1-U67)*W68)/(U67)</f>
+        <v>5.3359203208766963E-2</v>
+      </c>
+      <c r="AB67">
+        <f>AA71/Y67</f>
+        <v>1.9214562855936753E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8.5057799999999992E-3</v>
+      </c>
+      <c r="F68" s="1">
+        <f>B68/SQRT(C67)</f>
+        <v>0.1199356478572034</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68" s="7">
+        <v>6.4875933775467298E-2</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.131491250810882</v>
+      </c>
+      <c r="R68" t="s">
+        <v>2</v>
+      </c>
+      <c r="S68" s="1">
+        <v>7.1933700000000001E-3</v>
+      </c>
+      <c r="W68" s="1">
+        <f>S68/SQRT(T67)</f>
+        <v>0.10143002654977806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="N69" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0.1099989609524949</v>
+      </c>
+      <c r="P69" s="5">
+        <v>6.5087491546706247E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0.12630714105509813</v>
+      </c>
+      <c r="P70" s="5">
+        <v>4.0820441896712134E-2</v>
+      </c>
+      <c r="R70" t="s">
+        <v>8</v>
+      </c>
+      <c r="W70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.57396E-5</v>
+      </c>
+      <c r="C71" s="12">
+        <v>5.9501299999999996E-7</v>
+      </c>
+      <c r="F71" s="1">
+        <f>B71^2/C67 + C71^2*0.25*B67^2/(C67)^3</f>
+        <v>1.3176505902819322E-7</v>
+      </c>
+      <c r="H71">
+        <f>F71/(D67)^2 + F72*((1-D67)/D67)^2</f>
+        <v>1.4057373897163952E-7</v>
+      </c>
+      <c r="J71">
+        <f>SQRT(H71)</f>
+        <v>3.7493164573244484E-4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0.15316548557983833</v>
+      </c>
+      <c r="P71" s="5">
+        <v>3.1950323854232042E-2</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1">
+        <v>6.9104700000000003E-5</v>
+      </c>
+      <c r="T71" s="9">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="W71" s="1">
+        <f>S71^2/T67 + T71^2*0.25*S67^2/(T67)^3</f>
+        <v>9.4948368145187182E-7</v>
+      </c>
+      <c r="Y71">
+        <f>W71/(U67)^2 + W72*((1-U67)/U67)^2</f>
+        <v>1.0511862911417138E-6</v>
+      </c>
+      <c r="AA71">
+        <f>SQRT(Y71)</f>
+        <v>1.0252737639975548E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6.8189700000000002E-5</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="F72" s="1">
+        <f>B72^2/C67 + C71^2*0.25*B68^2/(C67)^3</f>
+        <v>9.2454803867058622E-7</v>
+      </c>
+      <c r="N72" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0.1822977368690569</v>
+      </c>
+      <c r="P72" s="5">
+        <v>3.3873671896799913E-2</v>
+      </c>
+      <c r="R72" t="s">
+        <v>2</v>
+      </c>
+      <c r="S72" s="1">
+        <v>1.15055E-4</v>
+      </c>
+      <c r="T72" s="10"/>
+      <c r="W72" s="1">
+        <f>S72^2/T67 + T71^2*0.25*S68^2/(T67)^3</f>
+        <v>2.6319894169763813E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="N73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0.21770241685354796</v>
+      </c>
+      <c r="P73" s="5">
+        <v>4.7980277714905512E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="F74">
+        <f>SQRT(F71)</f>
+        <v>3.6299457162358945E-4</v>
+      </c>
+      <c r="W74">
+        <f>SQRT(W71)</f>
+        <v>9.7441453265633912E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="F75">
+        <f>SQRT(F72)</f>
+        <v>9.6153421086854019E-4</v>
+      </c>
+      <c r="W75">
+        <f>SQRT(W72)</f>
+        <v>1.6223407216045529E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="R77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V78" s="2"/>
+      <c r="W78" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8.7917900000000007E-3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.96612399999999998</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1">
+        <f>B79/SQRT(C79)</f>
+        <v>0.1239685283976875</v>
+      </c>
+      <c r="H79">
+        <f>(F79-(1-D79)*F80)/(D79)</f>
+        <v>0.12347400757224716</v>
+      </c>
+      <c r="K79">
+        <f>J83/H79</f>
+        <v>3.7335597115228827E-3</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" s="3">
+        <v>5.6947100000000004E-3</v>
+      </c>
+      <c r="T79" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0.953677</v>
+      </c>
+      <c r="V79" s="2"/>
+      <c r="W79" s="1">
+        <f>S79/SQRT(T79)</f>
+        <v>8.0298189373448986E-2</v>
+      </c>
+      <c r="Y79">
+        <f>(W79-(1-U79)*W80)/(U79)</f>
+        <v>7.8545171519097776E-2</v>
+      </c>
+      <c r="AB79">
+        <f>AA83/Y79</f>
+        <v>1.081257775325861E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="3">
+        <v>9.7920000000000004E-3</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="1">
+        <f>B80/SQRT(C79)</f>
+        <v>0.13807197738687527</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S80" s="3">
+        <v>8.2542199999999996E-3</v>
+      </c>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="1">
+        <f>S80/SQRT(T79)</f>
+        <v>0.11638852912441722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>10</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3.1471099999999998E-5</v>
+      </c>
+      <c r="C83" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1">
+        <f>B83^2/C79 + C83^2*0.25*B79^2/(C79)^3</f>
+        <v>1.9697481133383223E-7</v>
+      </c>
+      <c r="H83">
+        <f>F83/(D79)^2 + F84*((1-D79)/D79)^2</f>
+        <v>2.1251876885069227E-7</v>
+      </c>
+      <c r="J83">
+        <f>SQRT(H83)</f>
+        <v>4.6099758009201337E-4</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S83" s="3">
+        <v>5.72272E-5</v>
+      </c>
+      <c r="T83" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="1">
+        <f>S83^2/T79 + T83^2*0.25*S79^2/(T79)^3</f>
+        <v>6.5115682974386232E-7</v>
+      </c>
+      <c r="Y83">
+        <f>W83/(U79)^2 + W84*((1-U79)/U79)^2</f>
+        <v>7.2126934063159238E-7</v>
+      </c>
+      <c r="AA83">
+        <f>SQRT(Y83)</f>
+        <v>8.4927577419327842E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="3">
+        <v>7.8028799999999994E-5</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="1">
+        <f>B84^2/C79 + C83^2*0.25*B80^2/(C79)^3</f>
+        <v>1.2106038872324694E-6</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" s="3">
+        <v>1.06482E-4</v>
+      </c>
+      <c r="T84" s="8"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="1">
+        <f>S84^2/T79 + T83^2*0.25*S80^2/(T79)^3</f>
+        <v>2.2543853760774123E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86">
+        <f>SQRT(F83)</f>
+        <v>4.4381844411181499E-4</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86">
+        <f>SQRT(W83)</f>
+        <v>8.0694289125306901E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87">
+        <f>SQRT(F84)</f>
+        <v>1.1002744599564553E-3</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87">
+        <f>SQRT(W84)</f>
+        <v>1.5014610804404529E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V90" s="2"/>
+      <c r="W90" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3">
+        <v>9.5868800000000007E-3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.96080600000000005</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="1">
+        <f>B91/SQRT(C91)</f>
+        <v>0.13517968531154889</v>
+      </c>
+      <c r="H91">
+        <f>(F91-(1-D91)*F92)/(D91)</f>
+        <v>0.13460033350912146</v>
+      </c>
+      <c r="K91">
+        <f>J95/H91</f>
+        <v>3.7864960379648989E-3</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S91" s="3">
+        <v>7.5093699999999996E-3</v>
+      </c>
+      <c r="T91" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0.95487200000000005</v>
+      </c>
+      <c r="V91" s="2"/>
+      <c r="W91" s="1">
+        <f>S91/SQRT(T91)</f>
+        <v>0.10588578072198523</v>
+      </c>
+      <c r="Y91">
+        <f>(W91-(1-U91)*W92)/(U91)</f>
+        <v>0.10446067073295583</v>
+      </c>
+      <c r="AB91">
+        <f>AA95/Y91</f>
+        <v>7.9402578301507459E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.05941E-2</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1">
+        <f>B92/SQRT(C91)</f>
+        <v>0.14938197872082262</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" s="3">
+        <v>9.6478899999999992E-3</v>
+      </c>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="1">
+        <f>S92/SQRT(T91)</f>
+        <v>0.13603995607751837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3.4573699999999997E-5</v>
+      </c>
+      <c r="C95" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="1">
+        <f>B95^2/C91 + C95^2*0.25*B91^2/(C91)^3</f>
+        <v>2.3772607135330227E-7</v>
+      </c>
+      <c r="H95">
+        <f>F95/(D91)^2 + F96*((1-D91)/D91)^2</f>
+        <v>2.5975701527694893E-7</v>
+      </c>
+      <c r="J95">
+        <f>SQRT(H95)</f>
+        <v>5.0966362954104239E-4</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S95" s="3">
+        <v>5.5927000000000002E-5</v>
+      </c>
+      <c r="T95" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="1">
+        <f>S95^2/T91 + T95^2*0.25*S91^2/(T91)^3</f>
+        <v>6.2191891809647371E-7</v>
+      </c>
+      <c r="Y95">
+        <f>W95/(U91)^2 + W96*((1-U91)/U91)^2</f>
+        <v>6.8797844189597722E-7</v>
+      </c>
+      <c r="AA95">
+        <f>SQRT(Y95)</f>
+        <v>8.294446587301513E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8.2285600000000004E-5</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="1">
+        <f>B96^2/C91 + C95^2*0.25*B92^2/(C91)^3</f>
+        <v>1.3462978314744282E-6</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S96" s="3">
+        <v>1.15122E-4</v>
+      </c>
+      <c r="T96" s="8"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="1">
+        <f>S96^2/T91 + T95^2*0.25*S92^2/(T91)^3</f>
+        <v>2.6350792051791532E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98">
+        <f>SQRT(F95)</f>
+        <v>4.8757160638546442E-4</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98">
+        <f>SQRT(W95)</f>
+        <v>7.8861836023292893E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99">
+        <f>SQRT(F96)</f>
+        <v>1.160300750441207E-3</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99">
+        <f>SQRT(W96)</f>
+        <v>1.6232927047144497E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="R101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V102" s="2"/>
+      <c r="W102" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1.0227E-2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.95544300000000004</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="1">
+        <f>B103/SQRT(C103)</f>
+        <v>0.14420568961760347</v>
+      </c>
+      <c r="H103">
+        <f>(F103-(1-D103)*F104)/(D103)</f>
+        <v>0.14332223759379223</v>
+      </c>
+      <c r="K103">
+        <f>J107/H103</f>
+        <v>4.777284908683367E-3</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S103" s="3">
+        <v>9.7670099999999996E-3</v>
+      </c>
+      <c r="T103" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U103" s="2">
+        <v>0.95613999999999999</v>
+      </c>
+      <c r="V103" s="2"/>
+      <c r="W103" s="1">
+        <f>S103/SQRT(T103)</f>
+        <v>0.13771960619458581</v>
+      </c>
+      <c r="Y103">
+        <f>(W103-(1-U103)*W104)/(U103)</f>
+        <v>0.13725675057297773</v>
+      </c>
+      <c r="AB103">
+        <f>AA107/Y103</f>
+        <v>5.547866656797627E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.1570499999999999E-2</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="1">
+        <f>B104/SQRT(C103)</f>
+        <v>0.16314969509342728</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S104" s="3">
+        <v>1.04826E-2</v>
+      </c>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="1">
+        <f>S104/SQRT(T103)</f>
+        <v>0.14780977432145206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" t="s">
+        <v>10</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3">
+        <v>4.6144599999999999E-5</v>
+      </c>
+      <c r="C107" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="1">
+        <f>B107^2/C103 + C107^2*0.25*B103^2/(C103)^3</f>
+        <v>4.2343297983919734E-7</v>
+      </c>
+      <c r="H107">
+        <f>F107/(D103)^2 + F108*((1-D103)/D103)^2</f>
+        <v>4.6880198832816706E-7</v>
+      </c>
+      <c r="J107">
+        <f>SQRT(H107)</f>
+        <v>6.8469116273555558E-4</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S107" s="3">
+        <v>5.1385799999999999E-5</v>
+      </c>
+      <c r="T107" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="1">
+        <f>S107^2/T103 + T107^2*0.25*S103^2/(T103)^3</f>
+        <v>5.2504858356751748E-7</v>
+      </c>
+      <c r="Y107">
+        <f>W107/(U103)^2 + W108*((1-U103)/U103)^2</f>
+        <v>5.7985506465319983E-7</v>
+      </c>
+      <c r="AA107">
+        <f>SQRT(Y107)</f>
+        <v>7.6148214992421178E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1.0704099999999999E-4</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="1">
+        <f>B108^2/C103 + C107^2*0.25*B104^2/(C103)^3</f>
+        <v>2.2781711551856723E-6</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S108" s="3">
+        <v>1.14985E-4</v>
+      </c>
+      <c r="T108" s="8"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="1">
+        <f>S108^2/T103 + T107^2*0.25*S104^2/(T103)^3</f>
+        <v>2.6288209293358411E-6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110">
+        <f>SQRT(F107)</f>
+        <v>6.5071728103624027E-4</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110">
+        <f>SQRT(W107)</f>
+        <v>7.2460236238058005E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111">
+        <f>SQRT(F108)</f>
+        <v>1.5093611745323492E-3</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111">
+        <f>SQRT(W108)</f>
+        <v>1.6213639102113507E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V114" s="2"/>
+      <c r="W114" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1.01225E-2</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.94979499999999994</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="1">
+        <f>B115/SQRT(C115)</f>
+        <v>0.14273218863344003</v>
+      </c>
+      <c r="H115">
+        <f>(F115-(1-D115)*F116)/(D115)</f>
+        <v>0.14119083685929643</v>
+      </c>
+      <c r="K115">
+        <f>J119/H115</f>
+        <v>7.4683869460825504E-3</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S115" s="3">
+        <v>1.21187E-2</v>
+      </c>
+      <c r="T115" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U115" s="2">
+        <v>0.95709599999999995</v>
+      </c>
+      <c r="V115" s="2"/>
+      <c r="W115" s="1">
+        <f>S115/SQRT(T115)</f>
+        <v>0.17087958255293353</v>
+      </c>
+      <c r="Y115">
+        <f>(W115-(1-U115)*W116)/(U115)</f>
+        <v>0.17085790199058906</v>
+      </c>
+      <c r="AB115">
+        <f>AA119/Y115</f>
+        <v>5.2266531931880779E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.21905E-2</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="1">
+        <f>B116/SQRT(C115)</f>
+        <v>0.17189199758320084</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S116" s="3">
+        <v>1.2153000000000001E-2</v>
+      </c>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="1">
+        <f>S116/SQRT(T115)</f>
+        <v>0.17136322928744843</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" t="s">
+        <v>10</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="3">
+        <v>7.0556399999999994E-5</v>
+      </c>
+      <c r="C119" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="1">
+        <f>B119^2/C115 + C119^2*0.25*B115^2/(C115)^3</f>
+        <v>9.8985682271869254E-7</v>
+      </c>
+      <c r="H119">
+        <f>F119/(D115)^2 + F120*((1-D115)/D115)^2</f>
+        <v>1.1119023473663356E-6</v>
+      </c>
+      <c r="J119">
+        <f>SQRT(H119)</f>
+        <v>1.0544678029064405E-3</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S119" s="3">
+        <v>6.0298099999999998E-5</v>
+      </c>
+      <c r="T119" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="1">
+        <f>S119^2/T115 + T119^2*0.25*S115^2/(T115)^3</f>
+        <v>7.2297921341648757E-7</v>
+      </c>
+      <c r="Y119">
+        <f>W119/(U115)^2 + W120*((1-U115)/U115)^2</f>
+        <v>7.9747578847563371E-7</v>
+      </c>
+      <c r="AA119">
+        <f>SQRT(Y119)</f>
+        <v>8.93014999020528E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.62306E-4</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="1">
+        <f>B120^2/C115 + C119^2*0.25*B116^2/(C115)^3</f>
+        <v>5.2377648981361686E-6</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S120" s="3">
+        <v>1.4348200000000001E-4</v>
+      </c>
+      <c r="T120" s="8"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="1">
+        <f>S120^2/T115 + T119^2*0.25*S116^2/(T115)^3</f>
+        <v>4.0932856498388627E-6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122">
+        <f>SQRT(F119)</f>
+        <v>9.9491548521404198E-4</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122">
+        <f>SQRT(W119)</f>
+        <v>8.5028184351806989E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123">
+        <f>SQRT(F120)</f>
+        <v>2.2886163719890167E-3</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123">
+        <f>SQRT(W120)</f>
+        <v>2.0231870031805913E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="R125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" t="s">
+        <v>12</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V126" s="2"/>
+      <c r="W126" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="3">
+        <v>9.1981500000000004E-3</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.95977100000000004</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="1">
+        <f>B127/SQRT(C127)</f>
+        <v>0.12969840265533975</v>
+      </c>
+      <c r="H127">
+        <f>(F127-(1-D127)*F128)/(D127)</f>
+        <v>0.12829528007090235</v>
+      </c>
+      <c r="K127">
+        <f>J131/H127</f>
+        <v>1.2785524947435815E-2</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S127" s="3">
+        <v>1.34749E-2</v>
+      </c>
+      <c r="T127" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U127" s="2">
+        <v>0.95977100000000004</v>
+      </c>
+      <c r="V127" s="2"/>
+      <c r="W127" s="1">
+        <f>S127/SQRT(T127)</f>
+        <v>0.19000266422491885</v>
+      </c>
+      <c r="Y127">
+        <f>(W127-(1-U127)*W128)/(U127)</f>
+        <v>0.19017601181827851</v>
+      </c>
+      <c r="AB127">
+        <f>AA131/Y127</f>
+        <v>6.9774305297168196E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1.15722E-2</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="1">
+        <f>B128/SQRT(C127)</f>
+        <v>0.16317366592283472</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S128" s="3">
+        <v>1.31816E-2</v>
+      </c>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="1">
+        <f>S128/SQRT(T127)</f>
+        <v>0.18586699112774049</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" t="s">
+        <v>10</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1.11158E-4</v>
+      </c>
+      <c r="C131" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="1">
+        <f>B131^2/C127 + C131^2*0.25*B127^2/(C127)^3</f>
+        <v>2.4567452903563382E-6</v>
+      </c>
+      <c r="H131">
+        <f>F131/(D127)^2 + F132*((1-D127)/D127)^2</f>
+        <v>2.6906579170789211E-6</v>
+      </c>
+      <c r="J131">
+        <f>SQRT(H131)</f>
+        <v>1.6403225039847869E-3</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S131" s="3">
+        <v>8.9925600000000005E-5</v>
+      </c>
+      <c r="T131" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="1">
+        <f>S131^2/T127 + T131^2*0.25*S127^2/(T127)^3</f>
+        <v>1.6079143681111632E-6</v>
+      </c>
+      <c r="Y131">
+        <f>W131/(U127)^2 + W132*((1-U127)/U127)^2</f>
+        <v>1.760769527087929E-6</v>
+      </c>
+      <c r="AA131">
+        <f>SQRT(Y131)</f>
+        <v>1.3269399108806431E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2.6018100000000001E-4</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="1">
+        <f>B132^2/C127 + C131^2*0.25*B128^2/(C127)^3</f>
+        <v>1.3459299046112774E-5</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S132" s="3">
+        <v>2.0886099999999999E-4</v>
+      </c>
+      <c r="T132" s="8"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="1">
+        <f>S132^2/T127 + T131^2*0.25*S128^2/(T127)^3</f>
+        <v>8.6733713997526268E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134">
+        <f>SQRT(F131)</f>
+        <v>1.5674008071824954E-3</v>
+      </c>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134">
+        <f>SQRT(W131)</f>
+        <v>1.2680356336125429E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135">
+        <f>SQRT(F132)</f>
+        <v>3.6686917349530437E-3</v>
+      </c>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135">
+        <f>SQRT(W132)</f>
+        <v>2.9450588109157729E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="R137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" t="s">
+        <v>12</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V138" s="2"/>
+      <c r="W138" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3">
+        <v>8.9981200000000001E-3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.96200300000000005</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="1">
+        <f>B139/SQRT(C139)</f>
+        <v>0.12687788206335682</v>
+      </c>
+      <c r="H139">
+        <f>(F139-(1-D139)*F140)/(D139)</f>
+        <v>0.12616846529777986</v>
+      </c>
+      <c r="K139">
+        <f>J143/H139</f>
+        <v>2.0994066975420899E-2</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S139" s="3">
+        <v>1.36892E-2</v>
+      </c>
+      <c r="T139" s="1">
+        <v>5.0295799999999996E-3</v>
+      </c>
+      <c r="U139" s="2">
+        <v>0.96200300000000005</v>
+      </c>
+      <c r="V139" s="2"/>
+      <c r="W139" s="1">
+        <f>S139/SQRT(T139)</f>
+        <v>0.19302439877904543</v>
+      </c>
+      <c r="Y139">
+        <f>(W139-(1-U139)*W140)/(U139)</f>
+        <v>0.19364961762455776</v>
+      </c>
+      <c r="AB139">
+        <f>AA143/Y139</f>
+        <v>1.155522180144858E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1.02719E-2</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="1">
+        <f>B140/SQRT(C139)</f>
+        <v>0.14483880152371773</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S140" s="3">
+        <v>1.2566600000000001E-2</v>
+      </c>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="1">
+        <f>S140/SQRT(T139)</f>
+        <v>0.17719519107740059</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" t="s">
+        <v>10</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.8003800000000001E-4</v>
+      </c>
+      <c r="C143" s="14">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="1">
+        <f>B143^2/C139 + C143^2*0.25*B139^2/(C139)^3</f>
+        <v>6.4446662987349466E-6</v>
+      </c>
+      <c r="H143">
+        <f>F143/(D139)^2 + F144*((1-D139)/D139)^2</f>
+        <v>7.0160842824434438E-6</v>
+      </c>
+      <c r="J143">
+        <f>SQRT(H143)</f>
+        <v>2.6487892106476581E-3</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S143" s="3">
+        <v>1.52094E-4</v>
+      </c>
+      <c r="T143" s="8">
+        <v>5.3852999999999999E-7</v>
+      </c>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="1">
+        <f>S143^2/T139 + T143^2*0.25*S139^2/(T139)^3</f>
+        <v>4.5994142518321901E-6</v>
+      </c>
+      <c r="Y143">
+        <f>W143/(U139)^2 + W144*((1-U139)/U139)^2</f>
+        <v>5.0071414452822256E-6</v>
+      </c>
+      <c r="AA143">
+        <f>SQRT(Y143)</f>
+        <v>2.2376642834174712E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="3">
+        <v>4.1048000000000001E-4</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="1">
+        <f>B144^2/C139 + C143^2*0.25*B140^2/(C139)^3</f>
+        <v>3.3500650065773564E-5</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S144" s="3">
+        <v>3.4639399999999998E-4</v>
+      </c>
+      <c r="T144" s="8"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="1">
+        <f>S144^2/T139 + T143^2*0.25*S140^2/(T139)^3</f>
+        <v>2.3856714845799962E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146">
+        <f>SQRT(F143)</f>
+        <v>2.5386347312551577E-3</v>
+      </c>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146">
+        <f>SQRT(W143)</f>
+        <v>2.1446245013596646E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147">
+        <f>SQRT(F144)</f>
+        <v>5.787974608252317E-3</v>
+      </c>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147">
+        <f>SQRT(W144)</f>
+        <v>4.8843336132782704E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="R27:AB27"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C131:C132"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>